--- a/опт и Краснодар/2023/12,23/25,12,23 Сочи КИ/дв 25,12,23 счрсч.xlsx
+++ b/опт и Краснодар/2023/12,23/25,12,23 Сочи КИ/дв 25,12,23 счрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,12,23 Сочи КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\12,23\25,12,23 Сочи КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC97A6E-CDFD-4C59-A535-4FE6AF80F4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1959C-464E-44EA-A469-1F476AEB9607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -388,10 +388,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -551,66 +555,66 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6831,7 +6835,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6994,46 +6998,46 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="I5" s="18">
-        <f>SUM(I6:I204)</f>
+        <f t="shared" ref="I5:O5" si="1">SUM(I6:I204)</f>
         <v>3536.7310000000002</v>
       </c>
       <c r="J5" s="18">
-        <f>SUM(J6:J204)</f>
+        <f t="shared" si="1"/>
         <v>-1285.8869999999999</v>
       </c>
       <c r="K5" s="18">
-        <f>SUM(K6:K204)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="18">
-        <f>SUM(L6:L204)</f>
+        <f t="shared" si="1"/>
         <v>12232</v>
       </c>
       <c r="M5" s="18">
-        <f>SUM(M6:M204)</f>
+        <f t="shared" si="1"/>
         <v>450.16879999999981</v>
       </c>
       <c r="N5" s="19">
-        <f>SUM(N6:N204)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="20">
-        <f>SUM(O6:O204)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="18">
-        <f t="shared" ref="S5:U5" si="1">SUM(S6:S204)</f>
+        <f t="shared" ref="S5:U5" si="2">SUM(S6:S204)</f>
         <v>1241.6889999999999</v>
       </c>
       <c r="T5" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>822.87620000000015</v>
       </c>
       <c r="U5" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>933.08199999999988</v>
       </c>
       <c r="V5" s="13"/>
@@ -7140,7 +7144,7 @@
         <v>40.6</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J73" si="2">E7-I7</f>
+        <f t="shared" ref="J7:J73" si="3">E7-I7</f>
         <v>2.6730000000000018</v>
       </c>
       <c r="L7" s="2">
@@ -7148,17 +7152,17 @@
         <v>25</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M73" si="3">E7/5</f>
+        <f t="shared" ref="M7:M73" si="4">E7/5</f>
         <v>8.6546000000000003</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q70" si="4">(F7+L7+N7)/M7</f>
+        <f t="shared" ref="Q7:Q70" si="5">(F7+L7+N7)/M7</f>
         <v>7.3473066346220506</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:R70" si="5">(F7+L7)/M7</f>
+        <f t="shared" ref="R7:R70" si="6">(F7+L7)/M7</f>
         <v>7.3473066346220506</v>
       </c>
       <c r="S7" s="2">
@@ -7206,7 +7210,7 @@
         <v>11.7</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16400000000000148</v>
       </c>
       <c r="L8" s="2">
@@ -7214,17 +7218,17 @@
         <v>45</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3728000000000002</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="Q8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.802596089008766</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.802596089008766</v>
       </c>
       <c r="S8" s="2">
@@ -7268,21 +7272,21 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="Q9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="2">
@@ -7330,7 +7334,7 @@
         <v>96</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-35</v>
       </c>
       <c r="L10" s="2">
@@ -7338,17 +7342,17 @@
         <v>350</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="Q10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.360655737704921</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.360655737704921</v>
       </c>
       <c r="S10" s="2">
@@ -7396,7 +7400,7 @@
         <v>284</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-18</v>
       </c>
       <c r="L11" s="2">
@@ -7404,17 +7408,17 @@
         <v>800</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.2</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="Q11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.63533834586466</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.63533834586466</v>
       </c>
       <c r="S11" s="2">
@@ -7460,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="L12" s="2">
@@ -7468,17 +7472,17 @@
         <v>45</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="Q12" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S12" s="2">
@@ -7526,7 +7530,7 @@
         <v>162</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-138</v>
       </c>
       <c r="L13" s="2">
@@ -7534,17 +7538,17 @@
         <v>500</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="Q13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>185.625</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185.625</v>
       </c>
       <c r="S13" s="2">
@@ -7590,7 +7594,7 @@
         <v>98</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-84</v>
       </c>
       <c r="L14" s="2">
@@ -7598,17 +7602,17 @@
         <v>500</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="Q14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>237.50000000000003</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>237.50000000000003</v>
       </c>
       <c r="S14" s="2">
@@ -7650,7 +7654,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="L15" s="2">
@@ -7658,17 +7662,17 @@
         <v>100</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.4</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="Q15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-430</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-430</v>
       </c>
       <c r="S15" s="2">
@@ -7706,21 +7710,21 @@
         <v>50</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="Q16" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S16" s="2">
@@ -7772,7 +7776,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="L17" s="2">
@@ -7780,17 +7784,17 @@
         <v>140</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="Q17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.857142857142861</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.857142857142861</v>
       </c>
       <c r="S17" s="2">
@@ -7836,7 +7840,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -7844,17 +7848,17 @@
         <v>150</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="Q18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
       <c r="S18" s="2">
@@ -7898,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="L19" s="2">
@@ -7906,17 +7910,17 @@
         <v>30</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.4</v>
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="Q19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-75</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-75</v>
       </c>
       <c r="S19" s="2">
@@ -7962,7 +7966,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-22</v>
       </c>
       <c r="L20" s="2">
@@ -7970,17 +7974,17 @@
         <v>150</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="Q20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-750</v>
       </c>
       <c r="S20" s="2">
@@ -8028,7 +8032,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="L21" s="2">
@@ -8036,17 +8040,17 @@
         <v>350</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="Q21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>235.71428571428572</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>235.71428571428572</v>
       </c>
       <c r="S21" s="2">
@@ -8092,7 +8096,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="L22" s="2">
@@ -8100,17 +8104,17 @@
         <v>50</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="Q22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.5</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
       <c r="S22" s="2">
@@ -8158,7 +8162,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="L23" s="2">
@@ -8166,17 +8170,17 @@
         <v>70</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="Q23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-635</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-635</v>
       </c>
       <c r="S23" s="2">
@@ -8212,7 +8216,7 @@
         <v>60</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24" s="2">
@@ -8220,17 +8224,17 @@
         <v>150</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24" si="6">E24/5</f>
+        <f t="shared" ref="M24" si="7">E24/5</f>
         <v>0</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="Q24" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="2">
@@ -8276,7 +8280,7 @@
         <v>47</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="L25" s="2">
@@ -8284,17 +8288,17 @@
         <v>400</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="Q25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>382.14285714285717</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382.14285714285717</v>
       </c>
       <c r="S25" s="2">
@@ -8340,7 +8344,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="L26" s="2">
@@ -8348,17 +8352,17 @@
         <v>200</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="Q26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1370</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1370</v>
       </c>
       <c r="S26" s="2">
@@ -8401,21 +8405,21 @@
         <v>3</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="Q27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S27" s="2">
@@ -8460,7 +8464,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L28" s="2">
@@ -8468,17 +8472,17 @@
         <v>40</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
       <c r="Q28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="S28" s="2">
@@ -8524,21 +8528,21 @@
         <v>7</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="Q29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S29" s="2">
@@ -8588,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="L30" s="2">
@@ -8596,17 +8600,17 @@
         <v>350</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="Q30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>437.5</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>437.5</v>
       </c>
       <c r="S30" s="2">
@@ -8656,21 +8660,21 @@
         <v>17</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="Q31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31" s="2">
@@ -8722,7 +8726,7 @@
         <v>93</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-70</v>
       </c>
       <c r="L32" s="2">
@@ -8730,17 +8734,17 @@
         <v>350</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="Q32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100.86956521739131</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.86956521739131</v>
       </c>
       <c r="S32" s="2">
@@ -8788,7 +8792,7 @@
         <v>33</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-35</v>
       </c>
       <c r="L33" s="2">
@@ -8796,17 +8800,17 @@
         <v>300</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.4</v>
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="Q33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-957.5</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-957.5</v>
       </c>
       <c r="S33" s="2">
@@ -8854,7 +8858,7 @@
         <v>41</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="L34" s="2">
@@ -8862,17 +8866,17 @@
         <v>300</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="Q34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>208.88888888888889</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>208.88888888888889</v>
       </c>
       <c r="S34" s="2">
@@ -8920,7 +8924,7 @@
         <v>41</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-45</v>
       </c>
       <c r="L35" s="2">
@@ -8928,17 +8932,17 @@
         <v>300</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.8</v>
       </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="Q35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-482.5</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-482.5</v>
       </c>
       <c r="S35" s="2">
@@ -8986,7 +8990,7 @@
         <v>237.8</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-18.475000000000023</v>
       </c>
       <c r="L36" s="2">
@@ -8994,17 +8998,17 @@
         <v>210</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.864999999999995</v>
       </c>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="Q36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3120939245412062</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3120939245412062</v>
       </c>
       <c r="S36" s="2">
@@ -9049,7 +9053,7 @@
         <v>1.58</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41199999999999992</v>
       </c>
       <c r="L37" s="2">
@@ -9057,17 +9061,17 @@
         <v>15</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39839999999999998</v>
       </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="Q37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.691767068273094</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.691767068273094</v>
       </c>
       <c r="S37" s="2">
@@ -9118,21 +9122,21 @@
         <v>76.66</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-27.699999999999996</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7919999999999998</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="Q38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.160641339869279</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.160641339869279</v>
       </c>
       <c r="S38" s="2">
@@ -9173,7 +9177,7 @@
         <v>180</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L39" s="2">
@@ -9181,17 +9185,17 @@
         <v>15</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="Q39" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="2">
@@ -9240,7 +9244,7 @@
         <v>2.5</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.55</v>
       </c>
       <c r="L40" s="2">
@@ -9248,17 +9252,17 @@
         <v>200</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.21000000000000002</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="Q40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-952.38095238095229</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-952.38095238095229</v>
       </c>
       <c r="S40" s="2">
@@ -9304,7 +9308,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15.180000000000001</v>
       </c>
       <c r="L41" s="2">
@@ -9312,17 +9316,17 @@
         <v>100</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48399999999999999</v>
       </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="Q41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>529.27685950413218</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>529.27685950413218</v>
       </c>
       <c r="S41" s="2">
@@ -9368,7 +9372,7 @@
         <v>3.92</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.24799999999999978</v>
       </c>
       <c r="L42" s="2">
@@ -9376,17 +9380,17 @@
         <v>10</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73440000000000005</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="Q42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.768246187363829</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37.768246187363829</v>
       </c>
       <c r="S42" s="2">
@@ -9422,7 +9426,7 @@
         <v>35</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L43" s="2">
@@ -9430,17 +9434,17 @@
         <v>7</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="7">E43/5</f>
+        <f t="shared" ref="M43" si="8">E43/5</f>
         <v>0</v>
       </c>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="Q43" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="2">
@@ -9488,7 +9492,7 @@
         <v>11.9</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8999999999998849E-2</v>
       </c>
       <c r="L44" s="2">
@@ -9496,17 +9500,17 @@
         <v>50</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3957999999999999</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
       <c r="Q44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162.63127139160198</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162.63127139160198</v>
       </c>
       <c r="S44" s="2">
@@ -9544,21 +9548,21 @@
         <v>30</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
       <c r="Q45" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R45" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S45" s="2">
@@ -9603,7 +9607,7 @@
         <v>10.35</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4260000000000002</v>
       </c>
       <c r="L46" s="2">
@@ -9611,17 +9615,17 @@
         <v>25</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7847999999999999</v>
       </c>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="Q46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.429964141640518</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.429964141640518</v>
       </c>
       <c r="S46" s="2">
@@ -9669,7 +9673,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24399999999999977</v>
       </c>
       <c r="L47" s="2">
@@ -9677,17 +9681,17 @@
         <v>35</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6488</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
       <c r="Q47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.129306162057254</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.129306162057254</v>
       </c>
       <c r="S47" s="2">
@@ -9735,7 +9739,7 @@
         <v>75.7</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86899999999999977</v>
       </c>
       <c r="L48" s="2">
@@ -9743,17 +9747,17 @@
         <v>250</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.313800000000001</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="Q48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.688189737361071</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.688189737361071</v>
       </c>
       <c r="S48" s="2">
@@ -9803,7 +9807,7 @@
         <v>14.911</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L49" s="2">
@@ -9811,17 +9815,17 @@
         <v>35</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9821999999999997</v>
       </c>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
       <c r="Q49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-53.81563946080076</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-53.81563946080076</v>
       </c>
       <c r="S49" s="2">
@@ -9873,7 +9877,7 @@
         <v>38</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="L50" s="2">
@@ -9881,17 +9885,17 @@
         <v>140</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.4</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="Q50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.5625</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.5625</v>
       </c>
       <c r="S50" s="2">
@@ -9939,7 +9943,7 @@
         <v>62</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="L51" s="2">
@@ -9947,17 +9951,17 @@
         <v>200</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="Q51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.454545454545453</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.454545454545453</v>
       </c>
       <c r="S51" s="2">
@@ -10005,7 +10009,7 @@
         <v>179</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-35</v>
       </c>
       <c r="L52" s="2">
@@ -10013,17 +10017,17 @@
         <v>600</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="Q52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.638888888888889</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.638888888888889</v>
       </c>
       <c r="S52" s="2">
@@ -10071,7 +10075,7 @@
         <v>125</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-39</v>
       </c>
       <c r="L53" s="2">
@@ -10079,17 +10083,17 @@
         <v>300</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="Q53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.86046511627907</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.86046511627907</v>
       </c>
       <c r="S53" s="2">
@@ -10137,7 +10141,7 @@
         <v>203</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-59</v>
       </c>
       <c r="L54" s="2">
@@ -10145,17 +10149,17 @@
         <v>400</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="Q54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.722222222222221</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.722222222222221</v>
       </c>
       <c r="S54" s="2">
@@ -10203,7 +10207,7 @@
         <v>30</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-15</v>
       </c>
       <c r="L55" s="2">
@@ -10211,17 +10215,17 @@
         <v>100</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="Q55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.666666666666664</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.666666666666664</v>
       </c>
       <c r="S55" s="2">
@@ -10269,7 +10273,7 @@
         <v>6.5</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84199999999999964</v>
       </c>
       <c r="L56" s="2">
@@ -10277,17 +10281,17 @@
         <v>35</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4683999999999999</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="Q56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.56020157995097</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46.56020157995097</v>
       </c>
       <c r="S56" s="2">
@@ -10339,7 +10343,7 @@
         <v>41</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L57" s="2">
@@ -10347,17 +10351,17 @@
         <v>200</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="Q57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.073170731707322</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.073170731707322</v>
       </c>
       <c r="S57" s="2">
@@ -10404,21 +10408,21 @@
         <v>1</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="Q58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="S58" s="2">
@@ -10459,7 +10463,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="L59" s="2">
@@ -10467,17 +10471,17 @@
         <v>50</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="Q59" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R59" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S59" s="2">
@@ -10525,7 +10529,7 @@
         <v>70</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="L60" s="2">
@@ -10533,17 +10537,17 @@
         <v>150</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.2</v>
       </c>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
       <c r="Q60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.84848484848485</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.84848484848485</v>
       </c>
       <c r="S60" s="2">
@@ -10591,7 +10595,7 @@
         <v>47</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54</v>
       </c>
       <c r="L61" s="2">
@@ -10599,17 +10603,17 @@
         <v>300</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
       <c r="Q61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-317.14285714285717</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-317.14285714285717</v>
       </c>
       <c r="S61" s="2">
@@ -10657,7 +10661,7 @@
         <v>61</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-49</v>
       </c>
       <c r="L62" s="2">
@@ -10665,17 +10669,17 @@
         <v>300</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
       <c r="Q62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186.66666666666669</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>186.66666666666669</v>
       </c>
       <c r="S62" s="2">
@@ -10723,7 +10727,7 @@
         <v>7</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="L63" s="2">
@@ -10731,17 +10735,17 @@
         <v>100</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
       <c r="Q63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.75</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138.75</v>
       </c>
       <c r="S63" s="2">
@@ -10787,7 +10791,7 @@
         <v>69.66</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.59999999999999432</v>
       </c>
       <c r="L64" s="2">
@@ -10795,17 +10799,17 @@
         <v>120</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.812000000000001</v>
       </c>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
       <c r="Q64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.828989284679986</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.828989284679986</v>
       </c>
       <c r="S64" s="2">
@@ -10853,7 +10857,7 @@
         <v>13.15</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.0560000000000009</v>
       </c>
       <c r="L65" s="2">
@@ -10861,17 +10865,17 @@
         <v>40</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2187999999999999</v>
       </c>
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="Q65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.497926807283218</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.497926807283218</v>
       </c>
       <c r="S65" s="2">
@@ -10907,7 +10911,7 @@
         <v>40</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" ref="J66" si="8">E66-I66</f>
+        <f t="shared" ref="J66" si="9">E66-I66</f>
         <v>0</v>
       </c>
       <c r="L66" s="2">
@@ -10915,17 +10919,17 @@
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" ref="M66" si="9">E66/5</f>
+        <f t="shared" ref="M66" si="10">E66/5</f>
         <v>0</v>
       </c>
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="Q66" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R66" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S66" s="2">
@@ -10967,21 +10971,21 @@
         <v>1.3</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="Q67" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R67" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S67" s="2">
@@ -11026,7 +11030,7 @@
         <v>247</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-190</v>
       </c>
       <c r="L68" s="2">
@@ -11034,17 +11038,17 @@
         <v>750</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="Q68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="S68" s="2">
@@ -11092,7 +11096,7 @@
         <v>96</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-85</v>
       </c>
       <c r="L69" s="2">
@@ -11100,17 +11104,17 @@
         <v>550</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="Q69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>445.45454545454544</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>445.45454545454544</v>
       </c>
       <c r="S69" s="2">
@@ -11158,7 +11162,7 @@
         <v>199</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11</v>
       </c>
       <c r="L70" s="2">
@@ -11166,17 +11170,17 @@
         <v>250</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.6</v>
       </c>
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="Q70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.542553191489361</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.542553191489361</v>
       </c>
       <c r="S70" s="2">
@@ -11224,7 +11228,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -11232,17 +11236,17 @@
         <v>70</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="Q71" s="2">
-        <f t="shared" ref="Q71:Q85" si="10">(F71+L71+N71)/M71</f>
+        <f t="shared" ref="Q71:Q85" si="11">(F71+L71+N71)/M71</f>
         <v>212.5</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" ref="R71:R85" si="11">(F71+L71)/M71</f>
+        <f t="shared" ref="R71:R85" si="12">(F71+L71)/M71</f>
         <v>212.5</v>
       </c>
       <c r="S71" s="2">
@@ -11284,7 +11288,7 @@
         <v>40</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L72" s="2">
@@ -11292,17 +11296,17 @@
         <v>70</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="Q72" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R72" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S72" s="2">
@@ -11350,7 +11354,7 @@
         <v>67</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7349999999999994</v>
       </c>
       <c r="L73" s="2">
@@ -11358,17 +11362,17 @@
         <v>100</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.853</v>
       </c>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="Q73" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.84299385357504</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.84299385357504</v>
       </c>
       <c r="S73" s="2">
@@ -11414,7 +11418,7 @@
         <v>32</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" ref="J74:J85" si="12">E74-I74</f>
+        <f t="shared" ref="J74:J85" si="13">E74-I74</f>
         <v>0</v>
       </c>
       <c r="L74" s="2">
@@ -11422,17 +11426,17 @@
         <v>100</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" ref="M74:M85" si="13">E74/5</f>
+        <f t="shared" ref="M74:M85" si="14">E74/5</f>
         <v>6.4</v>
       </c>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="Q74" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>58.4375</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58.4375</v>
       </c>
       <c r="S74" s="2">
@@ -11484,21 +11488,21 @@
         <v>24</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="Q75" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7826086956521747</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.7826086956521747</v>
       </c>
       <c r="S75" s="2">
@@ -11546,21 +11550,21 @@
         <v>19</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.8</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="Q76" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.263157894736842</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.263157894736842</v>
       </c>
       <c r="S76" s="2">
@@ -11608,7 +11612,7 @@
         <v>17</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L77" s="2">
@@ -11616,17 +11620,17 @@
         <v>25</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="Q77" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.588235294117647</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.588235294117647</v>
       </c>
       <c r="S77" s="2">
@@ -11674,7 +11678,7 @@
         <v>19</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="L78" s="2">
@@ -11682,17 +11686,17 @@
         <v>50</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="Q78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.125</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28.125</v>
       </c>
       <c r="S78" s="2">
@@ -11744,7 +11748,7 @@
         <v>26</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-12</v>
       </c>
       <c r="L79" s="2">
@@ -11752,17 +11756,17 @@
         <v>130</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="Q79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80.714285714285722</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>80.714285714285722</v>
       </c>
       <c r="S79" s="2">
@@ -11810,7 +11814,7 @@
         <v>15</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
       <c r="L80" s="2">
@@ -11818,17 +11822,17 @@
         <v>130</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="Q80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>227</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>227</v>
       </c>
       <c r="S80" s="2">
@@ -11880,7 +11884,7 @@
         <v>131</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-55</v>
       </c>
       <c r="L81" s="2">
@@ -11888,17 +11892,17 @@
         <v>300</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.2</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="Q81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.210526315789476</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.210526315789476</v>
       </c>
       <c r="S81" s="2">
@@ -11950,21 +11954,21 @@
         <v>11.7</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0599999999999987</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1280000000000001</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
       <c r="Q82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.5</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.5</v>
       </c>
       <c r="S82" s="2">
@@ -12012,21 +12016,21 @@
         <v>70</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.4</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
       <c r="Q83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.4925373134328357</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.4925373134328357</v>
       </c>
       <c r="S83" s="2">
@@ -12074,21 +12078,21 @@
         <v>6</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
       <c r="Q84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.83333333333333337</v>
       </c>
       <c r="R84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.83333333333333337</v>
       </c>
       <c r="S84" s="2">
@@ -12136,21 +12140,21 @@
         <v>13</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
       <c r="Q85" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="R85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="S85" s="2">
